--- a/3학년송배전_수행평가/314_화요일/전기과_3학년_1학기_314_수행평가.xlsx
+++ b/3학년송배전_수행평가/314_화요일/전기과_3학년_1학기_314_수행평가.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="58">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>기특</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +610,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,6 +654,9 @@
       <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
@@ -740,7 +747,10 @@
       <c r="F3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <f>K14+AVERAGEIF(L14:AF14,"&gt;3.0")</f>
+        <v>7.8</v>
+      </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
@@ -825,7 +835,10 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <f>K15+AVERAGEIF(L15:AF15,"&gt;3.0")</f>
+        <v>8.5</v>
+      </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
@@ -910,7 +923,10 @@
       <c r="F5" s="4">
         <v>4.5</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <f>K16+AVERAGEIF(L16:AF16,"&gt;3.0")</f>
+        <v>9.5833333333333321</v>
+      </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
@@ -995,7 +1011,10 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <f>K17+AVERAGEIF(L17:AF17,"&gt;3.0")</f>
+        <v>9.7222222222222214</v>
+      </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
@@ -1080,7 +1099,10 @@
       <c r="F7" s="4">
         <v>3.5</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <f>K18+AVERAGEIF(L18:AF18,"&gt;3.0")</f>
+        <v>8.4166666666666679</v>
+      </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
@@ -1165,7 +1187,10 @@
       <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <f>K19+AVERAGEIF(L19:AF19,"&gt;3.0")</f>
+        <v>8.6111111111111107</v>
+      </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +1271,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <f>K20+AVERAGEIF(L20:AF20,"&gt;3.0")</f>
+        <v>10</v>
+      </c>
       <c r="H9" t="s">
         <v>29</v>
       </c>
@@ -1327,7 +1355,10 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <f>K21+AVERAGEIF(L21:AF21,"&gt;3.0")</f>
+        <v>9.4722222222222214</v>
+      </c>
       <c r="H10" t="s">
         <v>30</v>
       </c>
@@ -1408,7 +1439,10 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <f>K22+AVERAGEIF(L22:AF22,"&gt;3.0")</f>
+        <v>8.75</v>
+      </c>
       <c r="H11" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1523,10 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <f>K23+AVERAGEIF(L23:AF23,"&gt;3.0")</f>
+        <v>9.8055555555555554</v>
+      </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
@@ -1570,9 +1607,6 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1587,10 +1621,6 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <f>K14+AVERAGEIF(L14:AF14,"&gt;3.0")</f>
-        <v>7.8</v>
-      </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
@@ -1699,10 +1729,6 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <f t="shared" ref="G15:G23" si="1">K15+AVERAGEIF(L15:AF15,"&gt;3.0")</f>
-        <v>8.5</v>
-      </c>
       <c r="H15" t="s">
         <v>24</v>
       </c>
@@ -1713,88 +1739,88 @@
         <v>4</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" ref="K15:S23" si="2">VLOOKUP(K4,$E$4:$F$8,2)</f>
+        <f t="shared" ref="K15:S23" si="1">VLOOKUP(K4,$E$4:$F$8,2)</f>
         <v>4</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="M15" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="N15" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3">
-        <f t="shared" ref="U15:AF15" si="3">VLOOKUP(U4,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U15:AF15" si="2">VLOOKUP(U4,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1811,10 +1837,6 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>9.5833333333333321</v>
-      </c>
       <c r="H16" t="s">
         <v>25</v>
       </c>
@@ -1825,88 +1847,88 @@
         <v>21</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="O16" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3">
-        <f t="shared" ref="U16:AF16" si="4">VLOOKUP(U5,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U16:AF16" si="3">VLOOKUP(U5,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AE16" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1923,10 +1945,6 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>9.7222222222222214</v>
-      </c>
       <c r="H17" t="s">
         <v>26</v>
       </c>
@@ -1937,88 +1955,88 @@
         <v>7</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P17" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3">
-        <f t="shared" ref="U17:AF17" si="5">VLOOKUP(U6,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U17:AF17" si="4">VLOOKUP(U6,$E$4:$F$8,2)</f>
         <v>4</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2035,10 +2053,6 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4166666666666679</v>
-      </c>
       <c r="H18" t="s">
         <v>27</v>
       </c>
@@ -2049,88 +2063,88 @@
         <v>18</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="R18" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3">
-        <f t="shared" ref="U18:AF18" si="6">VLOOKUP(U7,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U18:AF18" si="5">VLOOKUP(U7,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AB18" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2147,10 +2161,6 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>8.6111111111111107</v>
-      </c>
       <c r="H19" t="s">
         <v>28</v>
       </c>
@@ -2161,88 +2171,88 @@
         <v>12</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="e">
-        <f t="shared" ref="U19:AF19" si="7">VLOOKUP(U8,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U19:AF19" si="6">VLOOKUP(U8,$E$4:$F$8,2)</f>
         <v>#N/A</v>
       </c>
       <c r="V19" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -2259,10 +2269,6 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="H20" t="s">
         <v>29</v>
       </c>
@@ -2273,88 +2279,88 @@
         <v>22</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3">
-        <f t="shared" ref="U20:AF20" si="8">VLOOKUP(U9,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U20:AF20" si="7">VLOOKUP(U9,$E$4:$F$8,2)</f>
         <v>5</v>
       </c>
       <c r="V20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="W20" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="X20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AF20" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -2371,10 +2377,6 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <f t="shared" si="1"/>
-        <v>9.4722222222222214</v>
-      </c>
       <c r="H21" t="s">
         <v>30</v>
       </c>
@@ -2385,88 +2387,88 @@
         <v>15</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3">
-        <f t="shared" ref="U21:AF21" si="9">VLOOKUP(U10,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U21:AF21" si="8">VLOOKUP(U10,$E$4:$F$8,2)</f>
         <v>5</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="X21" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="Y21" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -2483,10 +2485,6 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <f t="shared" si="1"/>
-        <v>8.75</v>
-      </c>
       <c r="H22" t="s">
         <v>31</v>
       </c>
@@ -2497,88 +2495,88 @@
         <v>17</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3">
-        <f t="shared" ref="U22:AF22" si="10">VLOOKUP(U11,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U22:AF22" si="9">VLOOKUP(U11,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Z22" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AA22" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2595,10 +2593,6 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <f t="shared" si="1"/>
-        <v>9.8055555555555554</v>
-      </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
@@ -2609,89 +2603,98 @@
         <v>20</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3">
-        <f t="shared" ref="U23:AF23" si="11">VLOOKUP(U12,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U23:AF23" si="10">VLOOKUP(U12,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AC23" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AD23" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="11"/>
-        <v>4.5</v>
+        <f t="shared" si="10"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4">
+        <f>AVERAGE(C3:C23)</f>
+        <v>9.07</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">

--- a/3학년송배전_수행평가/314_화요일/전기과_3학년_1학기_314_수행평가.xlsx
+++ b/3학년송배전_수행평가/314_화요일/전기과_3학년_1학기_314_수행평가.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="0516_화요일" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="0523_화요일" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="94">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +240,150 @@
   </si>
   <si>
     <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양민석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신은수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄상민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김예훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장혜성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전병태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박찬규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강윤혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강병준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강명석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강현욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오주영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +755,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -748,7 +893,7 @@
         <v>53</v>
       </c>
       <c r="G3" s="4">
-        <f>K14+AVERAGEIF(L14:AF14,"&gt;3.0")</f>
+        <f t="shared" ref="G3:G12" si="0">K14+AVERAGEIF(L14:AF14,"&gt;3.0")</f>
         <v>7.8</v>
       </c>
       <c r="H3" t="s">
@@ -836,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <f>K15+AVERAGEIF(L15:AF15,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="H4" t="s">
@@ -924,7 +1069,7 @@
         <v>4.5</v>
       </c>
       <c r="G5" s="4">
-        <f>K16+AVERAGEIF(L16:AF16,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>9.5833333333333321</v>
       </c>
       <c r="H5" t="s">
@@ -1012,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="4">
-        <f>K17+AVERAGEIF(L17:AF17,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>9.7222222222222214</v>
       </c>
       <c r="H6" t="s">
@@ -1100,7 +1245,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" s="4">
-        <f>K18+AVERAGEIF(L18:AF18,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>8.4166666666666679</v>
       </c>
       <c r="H7" t="s">
@@ -1188,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="4">
-        <f>K19+AVERAGEIF(L19:AF19,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>8.6111111111111107</v>
       </c>
       <c r="H8" t="s">
@@ -1272,7 +1417,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <f>K20+AVERAGEIF(L20:AF20,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H9" t="s">
@@ -1356,7 +1501,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <f>K21+AVERAGEIF(L21:AF21,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>9.4722222222222214</v>
       </c>
       <c r="H10" t="s">
@@ -1440,7 +1585,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <f>K22+AVERAGEIF(L22:AF22,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="H11" t="s">
@@ -1524,7 +1669,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <f>K23+AVERAGEIF(L23:AF23,"&gt;3.0")</f>
+        <f t="shared" si="0"/>
         <v>9.8055555555555554</v>
       </c>
       <c r="H12" t="s">
@@ -1635,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="3" t="e">
-        <f t="shared" ref="L14:AF14" si="0">VLOOKUP(L3,$E$4:$F$8,2)</f>
+        <f t="shared" ref="L14:AF14" si="1">VLOOKUP(L3,$E$4:$F$8,2)</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="3">
@@ -1643,76 +1788,76 @@
         <v>3.5</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="S14" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1739,88 +1884,88 @@
         <v>4</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" ref="K15:S23" si="1">VLOOKUP(K4,$E$4:$F$8,2)</f>
+        <f t="shared" ref="K15:S23" si="2">VLOOKUP(K4,$E$4:$F$8,2)</f>
         <v>4</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="M15" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="N15" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3">
-        <f t="shared" ref="U15:AF15" si="2">VLOOKUP(U4,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U15:AF15" si="3">VLOOKUP(U4,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1847,88 +1992,88 @@
         <v>21</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="O16" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3">
-        <f t="shared" ref="U16:AF16" si="3">VLOOKUP(U5,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U16:AF16" si="4">VLOOKUP(U5,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE16" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1955,88 +2100,88 @@
         <v>7</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P17" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3">
-        <f t="shared" ref="U17:AF17" si="4">VLOOKUP(U6,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U17:AF17" si="5">VLOOKUP(U6,$E$4:$F$8,2)</f>
         <v>4</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2063,88 +2208,88 @@
         <v>18</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="R18" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3">
-        <f t="shared" ref="U18:AF18" si="5">VLOOKUP(U7,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U18:AF18" si="6">VLOOKUP(U7,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="AB18" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2171,88 +2316,88 @@
         <v>12</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="e">
-        <f t="shared" ref="U19:AF19" si="6">VLOOKUP(U8,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U19:AF19" si="7">VLOOKUP(U8,$E$4:$F$8,2)</f>
         <v>#N/A</v>
       </c>
       <c r="V19" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -2279,88 +2424,88 @@
         <v>22</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3">
-        <f t="shared" ref="U20:AF20" si="7">VLOOKUP(U9,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U20:AF20" si="8">VLOOKUP(U9,$E$4:$F$8,2)</f>
         <v>5</v>
       </c>
       <c r="V20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="W20" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="X20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AF20" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -2387,88 +2532,88 @@
         <v>15</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3">
-        <f t="shared" ref="U21:AF21" si="8">VLOOKUP(U10,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U21:AF21" si="9">VLOOKUP(U10,$E$4:$F$8,2)</f>
         <v>5</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X21" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="Y21" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -2495,88 +2640,88 @@
         <v>17</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3">
-        <f t="shared" ref="U22:AF22" si="9">VLOOKUP(U11,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U22:AF22" si="10">VLOOKUP(U11,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="Z22" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA22" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2603,88 +2748,88 @@
         <v>20</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3">
-        <f t="shared" ref="U23:AF23" si="10">VLOOKUP(U12,$E$4:$F$8,2)</f>
+        <f t="shared" ref="U23:AF23" si="11">VLOOKUP(U12,$E$4:$F$8,2)</f>
         <v>4.5</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AC23" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AD23" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2708,6 +2853,2113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="5.875" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" customWidth="1"/>
+    <col min="14" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>9</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>11</v>
+      </c>
+      <c r="W2">
+        <v>12</v>
+      </c>
+      <c r="X2">
+        <v>13</v>
+      </c>
+      <c r="Y2">
+        <v>14</v>
+      </c>
+      <c r="Z2">
+        <v>15</v>
+      </c>
+      <c r="AA2">
+        <v>16</v>
+      </c>
+      <c r="AB2">
+        <v>17</v>
+      </c>
+      <c r="AC2">
+        <v>18</v>
+      </c>
+      <c r="AD2">
+        <v>19</v>
+      </c>
+      <c r="AE2">
+        <v>20</v>
+      </c>
+      <c r="AF2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>31401</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="4">
+        <f>K14+AVERAGEIF(L14:AF14,"&gt;3.0")</f>
+        <v>9.7777777777777786</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>31402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G12" si="0">K15+AVERAGEIF(L15:AF15,"&gt;3.0")</f>
+        <v>9.9166666666666679</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>31403</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6944444444444446</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>31404</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>31405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>9.8611111111111107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>31406</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3888888888888893</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>31407</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>8.9722222222222214</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>31408</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>8.9722222222222214</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>31409</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0277777777777786</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>31410</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6666666666666679</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>31411</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>31412</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="3">
+        <f>VLOOKUP(K3,$E$4:$F$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" ref="L14:AF23" si="1">VLOOKUP(L3,$E$4:$F$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <f>VLOOKUP(M3,$E$4:$F$8,2)</f>
+        <v>4.5</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>31413</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:S23" si="2">VLOOKUP(K4,$E$4:$F$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="X15" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>31414</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="R16" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V16" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>31415</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD17" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>31416</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W18" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AE18" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF18" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>31417</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S19" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB19" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AD19" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AF19" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>31418</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="M20" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AD20" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF20" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>31419</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="L21" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC21" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AD21" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AF21" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>31420</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O22" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AD22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AF22" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>31421</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="P23" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AD23" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AE23" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF23" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4">
+        <f>AVERAGE(C3:C23)</f>
+        <v>9.370000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2722,7 +4974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/3학년송배전_수행평가/314_화요일/전기과_3학년_1학기_314_수행평가.xlsx
+++ b/3학년송배전_수행평가/314_화요일/전기과_3학년_1학기_314_수행평가.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="7155"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0516_화요일" sheetId="1" r:id="rId1"/>
     <sheet name="0523_화요일" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="0530_화요일" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="101">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +383,34 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,6 +490,166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4594412" y="668350"/>
+          <a:ext cx="2801470" cy="1676081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>자료 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>PT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>완성도</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>발표력</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>언어</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>행동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>제스처</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&gt;,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>시선처리</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>내용 숙지 정도</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>기타 참고</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -4961,28 +5148,873 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="5.875" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" customWidth="1"/>
+    <col min="14" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>31401</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>31402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AE4" s="4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>31403</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>31404</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>31405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>31406</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>31407</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>31408</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>31409</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>31410</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>31411</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>31412</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>31413</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>31414</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>31415</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>31416</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>31417</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>31418</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>31419</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>31420</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>31421</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/3학년송배전_수행평가/314_화요일/전기과_3학년_1학기_314_수행평가.xlsx
+++ b/3학년송배전_수행평가/314_화요일/전기과_3학년_1학기_314_수행평가.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="109">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,7 +410,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A-</t>
+    <t>A+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종
+성적(15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,13 +529,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>459441</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
@@ -5148,34 +5181,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="5.875" customWidth="1"/>
-    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" customWidth="1"/>
-    <col min="14" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="29" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="5.875" customWidth="1"/>
+    <col min="17" max="17" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5" customWidth="1"/>
+    <col min="19" max="24" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5183,213 +5223,311 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>31401</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4">
+        <f>SUM(F3,H3,J3)</f>
+        <v>11.5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4">
+        <f>VLOOKUP(E3,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4">
+        <f>VLOOKUP(G3,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <f>VLOOKUP(I3,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
       <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>31402</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4">
+        <f>SUM(F4,H4,J4)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4">
+        <f>VLOOKUP(E4,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4">
+        <f>VLOOKUP(G4,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <f>VLOOKUP(I4,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
       <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AE4" s="4"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AJ4" s="4"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>31403</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4">
+        <f>SUM(F5,H5,J5)</f>
+        <v>13</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4">
+        <f>VLOOKUP(E5,$N$12:$O$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4">
+        <f>VLOOKUP(G5,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <f>VLOOKUP(I5,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
       <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="S5" s="4"/>
       <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="V5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>31404</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4">
+        <f>SUM(F6,H6,J6)</f>
+        <v>10.5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4">
+        <f>VLOOKUP(E6,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4">
+        <f>VLOOKUP(G6,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <f>VLOOKUP(I6,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
       <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>31405</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4">
+        <f>SUM(F7,H7,J7)</f>
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4">
+        <f>VLOOKUP(E7,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4">
+        <f>VLOOKUP(G7,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <f>VLOOKUP(I7,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
       <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AK7" s="4"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>31406</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="4">
+        <f>SUM(F8,H8,J8)</f>
+        <v>13.5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="4">
+        <f>VLOOKUP(E8,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="4">
+        <f>VLOOKUP(G8,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <f>VLOOKUP(I8,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
       <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -5397,191 +5535,299 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31407</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="4">
+        <f>SUM(F9,H9,J9)</f>
+        <v>13.5</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4">
+        <f>VLOOKUP(E9,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4">
+        <f>VLOOKUP(G9,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <f>VLOOKUP(I9,$N$12:$O$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
       <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>31408</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="4">
+        <f>SUM(F10,H10,J10)</f>
+        <v>11.5</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4">
+        <f>VLOOKUP(E10,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4">
+        <f>VLOOKUP(G10,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <f>VLOOKUP(I10,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
       <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>31409</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>31410</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="4">
+        <f>SUM(F12,H12,J12)</f>
+        <v>11</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4">
+        <f>VLOOKUP(E12,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="4">
+        <f>VLOOKUP(G12,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <f>VLOOKUP(I12,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
       <c r="K12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>31411</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4">
+        <f>SUM(F13,H13,J13)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4">
+        <f>VLOOKUP(E13,$N$12:$O$17,2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4">
+        <f>VLOOKUP(G13,$N$12:$O$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="J13" s="4">
+        <f>VLOOKUP(I13,$N$12:$O$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>31412</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="4">
+        <f>SUM(F14,H14,J14)</f>
+        <v>13</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
+      <c r="F14" s="4">
+        <f>VLOOKUP(E14,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4">
+        <f>VLOOKUP(G14,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="4">
+        <f>VLOOKUP(I14,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4</v>
+      </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -5594,32 +5840,54 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31413</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="4">
+        <f>SUM(F15,H15,J15)</f>
+        <v>12</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4">
+        <f>VLOOKUP(E15,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="H15" s="4">
+        <f>VLOOKUP(G15,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="4">
+        <f>VLOOKUP(I15,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="4">
+        <v>3.5</v>
+      </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -5632,32 +5900,54 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31414</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="C16" s="4">
+        <f>SUM(F16,H16,J16)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="4">
+        <f>VLOOKUP(E16,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="4">
+        <f>VLOOKUP(G16,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="4">
+        <f>VLOOKUP(I16,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3</v>
+      </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -5670,32 +5960,54 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>31415</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="4">
+        <f>SUM(F17,H17,J17)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4">
+        <f>VLOOKUP(E17,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="4">
+        <f>VLOOKUP(G17,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="4">
+        <f>VLOOKUP(I17,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2.5</v>
+      </c>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -5708,32 +6020,49 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>31416</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="4">
+        <f>SUM(F18,H18,J18)</f>
+        <v>13.5</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="4">
+        <f>VLOOKUP(E18,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="4">
+        <f>VLOOKUP(G18,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="4">
+        <f>VLOOKUP(I18,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -5746,32 +6075,49 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31417</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="C19" s="4">
+        <f>SUM(F19,H19,J19)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="4">
+        <f>VLOOKUP(E19,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="4">
+        <f>VLOOKUP(G19,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="4">
+        <f>VLOOKUP(I19,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -5784,32 +6130,49 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>31418</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="C20" s="4">
+        <f>SUM(F20,H20,J20)</f>
+        <v>11</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="4">
+        <f>VLOOKUP(E20,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="4">
+        <f>VLOOKUP(G20,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="4">
+        <f>VLOOKUP(I20,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -5822,32 +6185,49 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>31419</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="4">
+        <f>SUM(F21,H21,J21)</f>
+        <v>14</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="4">
+        <f>VLOOKUP(E21,$N$12:$O$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="4">
+        <f>VLOOKUP(G21,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="4">
+        <f>VLOOKUP(I21,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -5860,32 +6240,49 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>31420</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="4">
+        <f>SUM(F22,H22,J22)</f>
+        <v>13</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4">
+        <f>VLOOKUP(E22,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="H22" s="4">
+        <f>VLOOKUP(G22,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="4">
+        <f>VLOOKUP(I22,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -5898,32 +6295,49 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31421</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="4">
+        <f>SUM(F23,H23,J23)</f>
+        <v>12</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4">
+        <f>VLOOKUP(E23,$N$12:$O$17,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H23" s="4">
+        <f>VLOOKUP(G23,$N$12:$O$17,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="4">
+        <f>VLOOKUP(I23,$N$12:$O$17,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -5936,80 +6350,89 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="J25" s="3"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="R31" t="s">
+      <c r="C24" s="4">
+        <f>AVERAGE(C3:C23)</f>
+        <v>12.225</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="W31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+    <row r="34" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
